--- a/2_Formulas_and_Functions/2_Functions_Intro/1_Why_Use_Functions.xlsx
+++ b/2_Formulas_and_Functions/2_Functions_Intro/1_Why_Use_Functions.xlsx
@@ -1,25 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_and_Functions\2_Functions_Intro\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3376C72-FB5E-4FF3-B199-DC3A006DFB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Formula" sheetId="1" r:id="rId1"/>
+    <sheet name="Function" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+  <si>
+    <t>Job Postings</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +398,265 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f>(B2+B3+B4+B5+B6+B7+B8+B9+B10+B11+B12+B13)/12</f>
+        <v>12.166666666666666</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55F6EC6-4B40-42A6-A857-EA9D4B317BFC}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f>AVERAGE(B2:B13)</f>
+        <v>12.166666666666666</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2_Formulas_and_Functions/2_Functions_Intro/1_Why_Use_Functions.xlsx
+++ b/2_Formulas_and_Functions/2_Functions_Intro/1_Why_Use_Functions.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_and_Functions\2_Functions_Intro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\2_Formulas_and_Functions\2_Functions_Intro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3376C72-FB5E-4FF3-B199-DC3A006DFB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4EE53D-88CC-454E-AD30-07820169484D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="20340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Formula" sheetId="1" r:id="rId1"/>
-    <sheet name="Function" sheetId="2" r:id="rId2"/>
+    <sheet name="Original" sheetId="3" r:id="rId1"/>
+    <sheet name="Formula" sheetId="1" r:id="rId2"/>
+    <sheet name="Function" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,13 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
-  <si>
-    <t>Job Postings</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
   <si>
     <t>January</t>
   </si>
@@ -82,6 +77,12 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>Job Posting Month</t>
+  </si>
+  <si>
+    <t>Job Posting Count</t>
   </si>
 </sst>
 </file>
@@ -117,8 +118,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,130 +402,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA04A6F-3FBE-4452-B5EE-7CDDD675613F}">
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>91868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3">
+        <v>64607</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4">
+        <v>64049</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B5">
+        <v>62920</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>52196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>61444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>63732</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>75232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>62358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>66694</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
+      <c r="B12">
+        <v>64369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
       <c r="B13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <f>(B2+B3+B4+B5+B6+B7+B8+B9+B10+B11+B12+B13)/12</f>
-        <v>12.166666666666666</v>
+        <v>56318</v>
       </c>
     </row>
   </sheetData>
@@ -530,130 +525,262 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>91868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>64607</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>64049</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>62920</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>52196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>61444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>63732</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>75232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>62358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>66694</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>64369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>56318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <f>(B2+B3+B4+B5+B6+B7+B8+B9+B10+B11+B12+B13)/12</f>
+        <v>65482.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55F6EC6-4B40-42A6-A857-EA9D4B317BFC}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>91868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3">
+        <v>64607</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B4">
+        <v>64049</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>62920</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>52196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>61444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>63732</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>75232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>62358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>66694</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>64369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>56318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
       </c>
       <c r="B15">
         <f>AVERAGE(B2:B13)</f>
-        <v>12.166666666666666</v>
+        <v>65482.25</v>
       </c>
     </row>
   </sheetData>
